--- a/src/assets/data/pokemon_app_data.xlsx
+++ b/src/assets/data/pokemon_app_data.xlsx
@@ -8,23 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aechavarri.NERVIA-DOMAIN\Documents\pokemon-app\src\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D9AC30A-9A43-4095-B870-32BD24385A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9462DA69-B09C-4EBE-B90A-2985FD7749E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3285" yWindow="2775" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3285" yWindow="2775" windowWidth="21600" windowHeight="11835" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Teams" sheetId="1" r:id="rId1"/>
     <sheet name="Tournaments" sheetId="2" r:id="rId2"/>
     <sheet name="Matches" sheetId="3" r:id="rId3"/>
     <sheet name="Users" sheetId="4" r:id="rId4"/>
-    <sheet name="Pokemon" sheetId="5" r:id="rId5"/>
+    <sheet name="Pokemons" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="143">
   <si>
     <t>Team 1</t>
   </si>
@@ -258,6 +258,201 @@
   </si>
   <si>
     <t>Pedro</t>
+  </si>
+  <si>
+    <t>Volt Absorb</t>
+  </si>
+  <si>
+    <t>Signal Beam</t>
+  </si>
+  <si>
+    <t>Volt Switch</t>
+  </si>
+  <si>
+    <t>Magnet</t>
+  </si>
+  <si>
+    <t>Psychic</t>
+  </si>
+  <si>
+    <t>Magic Guard</t>
+  </si>
+  <si>
+    <t>Dazzling Gleam</t>
+  </si>
+  <si>
+    <t>Alakazite</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Immunity</t>
+  </si>
+  <si>
+    <t>Body Slam</t>
+  </si>
+  <si>
+    <t>Rest</t>
+  </si>
+  <si>
+    <t>Crunch</t>
+  </si>
+  <si>
+    <t>Intimidate</t>
+  </si>
+  <si>
+    <t>Waterfall</t>
+  </si>
+  <si>
+    <t>Ice Fang</t>
+  </si>
+  <si>
+    <t>Gyaradosite</t>
+  </si>
+  <si>
+    <t>Chlorophyll</t>
+  </si>
+  <si>
+    <t>Giga Drain</t>
+  </si>
+  <si>
+    <t>Leech Seed</t>
+  </si>
+  <si>
+    <t>Sitrus Berry</t>
+  </si>
+  <si>
+    <t>Pressure</t>
+  </si>
+  <si>
+    <t>Psystrike</t>
+  </si>
+  <si>
+    <t>Aura Sphere</t>
+  </si>
+  <si>
+    <t>Mewtwonite Y</t>
+  </si>
+  <si>
+    <t>Fighting</t>
+  </si>
+  <si>
+    <t>Speed Boost</t>
+  </si>
+  <si>
+    <t>Flare Blitz</t>
+  </si>
+  <si>
+    <t>High Jump Kick</t>
+  </si>
+  <si>
+    <t>Brave Bird</t>
+  </si>
+  <si>
+    <t>Blazikenite</t>
+  </si>
+  <si>
+    <t>Rock</t>
+  </si>
+  <si>
+    <t>Dark</t>
+  </si>
+  <si>
+    <t>Sand Stream</t>
+  </si>
+  <si>
+    <t>Stone Edge</t>
+  </si>
+  <si>
+    <t>Tyranitarite</t>
+  </si>
+  <si>
+    <t>Steel</t>
+  </si>
+  <si>
+    <t>Clear Body</t>
+  </si>
+  <si>
+    <t>Meteor Mash</t>
+  </si>
+  <si>
+    <t>Zen Headbutt</t>
+  </si>
+  <si>
+    <t>Bullet Punch</t>
+  </si>
+  <si>
+    <t>Metagrossite</t>
+  </si>
+  <si>
+    <t>Fly</t>
+  </si>
+  <si>
+    <t>Salamencite</t>
+  </si>
+  <si>
+    <t>Ground</t>
+  </si>
+  <si>
+    <t>Sand Veil</t>
+  </si>
+  <si>
+    <t>Fire Fang</t>
+  </si>
+  <si>
+    <t>Swords Dance</t>
+  </si>
+  <si>
+    <t>Garchompite</t>
+  </si>
+  <si>
+    <t>Bug</t>
+  </si>
+  <si>
+    <t>Flame Body</t>
+  </si>
+  <si>
+    <t>Bug Buzz</t>
+  </si>
+  <si>
+    <t>Fiery Dance</t>
+  </si>
+  <si>
+    <t>Quiver Dance</t>
+  </si>
+  <si>
+    <t>Hurricane</t>
+  </si>
+  <si>
+    <t>Heat Wave</t>
+  </si>
+  <si>
+    <t>Dragon Pulse</t>
+  </si>
+  <si>
+    <t>Roost</t>
+  </si>
+  <si>
+    <t>Charizardite X</t>
+  </si>
+  <si>
+    <t>Overheat</t>
+  </si>
+  <si>
+    <t>Will-O-Wisp</t>
+  </si>
+  <si>
+    <t>Energy Ball</t>
+  </si>
+  <si>
+    <t>Calm Mind</t>
+  </si>
+  <si>
+    <t>Protect</t>
+  </si>
+  <si>
+    <t>Trick Room</t>
   </si>
 </sst>
 </file>
@@ -608,8 +803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,35 +819,35 @@
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="1">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="1">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="1">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="1">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="1">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="1">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>2</v>
+      <c r="J1" s="1">
+        <v>25</v>
+      </c>
+      <c r="K1" s="1">
+        <v>26</v>
+      </c>
+      <c r="L1" s="1">
+        <v>27</v>
+      </c>
+      <c r="M1" s="1">
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -665,35 +860,35 @@
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="1">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1">
         <v>9</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1">
         <v>10</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1">
         <v>11</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1">
         <v>12</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>9</v>
+      <c r="J2" s="1">
+        <v>35</v>
+      </c>
+      <c r="K2" s="1">
+        <v>36</v>
+      </c>
+      <c r="L2" s="1">
+        <v>37</v>
+      </c>
+      <c r="M2" s="1">
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -706,35 +901,35 @@
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="1">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1">
         <v>15</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="1">
         <v>16</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="1">
         <v>17</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="I3" s="1">
         <v>18</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>16</v>
+      <c r="J3" s="1">
+        <v>45</v>
+      </c>
+      <c r="K3" s="1">
+        <v>46</v>
+      </c>
+      <c r="L3" s="1">
+        <v>47</v>
+      </c>
+      <c r="M3" s="1">
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -747,35 +942,35 @@
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>2</v>
+      <c r="D4" s="1">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1">
+        <v>21</v>
+      </c>
+      <c r="G4" s="1">
+        <v>22</v>
+      </c>
+      <c r="H4" s="1">
+        <v>23</v>
+      </c>
+      <c r="I4" s="1">
+        <v>24</v>
+      </c>
+      <c r="J4" s="1">
+        <v>55</v>
+      </c>
+      <c r="K4" s="1">
+        <v>56</v>
+      </c>
+      <c r="L4" s="1">
+        <v>57</v>
+      </c>
+      <c r="M4" s="1">
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -788,35 +983,35 @@
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>9</v>
+      <c r="D5" s="1">
+        <v>29</v>
+      </c>
+      <c r="E5" s="1">
+        <v>30</v>
+      </c>
+      <c r="F5" s="1">
+        <v>31</v>
+      </c>
+      <c r="G5" s="1">
+        <v>32</v>
+      </c>
+      <c r="H5" s="1">
+        <v>33</v>
+      </c>
+      <c r="I5" s="1">
+        <v>34</v>
+      </c>
+      <c r="J5" s="1">
+        <v>65</v>
+      </c>
+      <c r="K5" s="1">
+        <v>66</v>
+      </c>
+      <c r="L5" s="1">
+        <v>67</v>
+      </c>
+      <c r="M5" s="1">
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -829,35 +1024,35 @@
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>16</v>
+      <c r="D6" s="1">
+        <v>39</v>
+      </c>
+      <c r="E6" s="1">
+        <v>40</v>
+      </c>
+      <c r="F6" s="1">
+        <v>41</v>
+      </c>
+      <c r="G6" s="1">
+        <v>42</v>
+      </c>
+      <c r="H6" s="1">
+        <v>43</v>
+      </c>
+      <c r="I6" s="1">
+        <v>44</v>
+      </c>
+      <c r="J6" s="1">
+        <v>75</v>
+      </c>
+      <c r="K6" s="1">
+        <v>76</v>
+      </c>
+      <c r="L6" s="1">
+        <v>77</v>
+      </c>
+      <c r="M6" s="1">
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -870,35 +1065,35 @@
       <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>2</v>
+      <c r="D7" s="1">
+        <v>49</v>
+      </c>
+      <c r="E7" s="1">
+        <v>50</v>
+      </c>
+      <c r="F7" s="1">
+        <v>51</v>
+      </c>
+      <c r="G7" s="1">
+        <v>52</v>
+      </c>
+      <c r="H7" s="1">
+        <v>53</v>
+      </c>
+      <c r="I7" s="1">
+        <v>54</v>
+      </c>
+      <c r="J7" s="1">
+        <v>85</v>
+      </c>
+      <c r="K7" s="1">
+        <v>86</v>
+      </c>
+      <c r="L7" s="1">
+        <v>87</v>
+      </c>
+      <c r="M7" s="1">
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -911,35 +1106,35 @@
       <c r="C8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>9</v>
+      <c r="D8" s="1">
+        <v>59</v>
+      </c>
+      <c r="E8" s="1">
+        <v>60</v>
+      </c>
+      <c r="F8" s="1">
+        <v>61</v>
+      </c>
+      <c r="G8" s="1">
+        <v>62</v>
+      </c>
+      <c r="H8" s="1">
+        <v>63</v>
+      </c>
+      <c r="I8" s="1">
+        <v>64</v>
+      </c>
+      <c r="J8" s="1">
+        <v>95</v>
+      </c>
+      <c r="K8" s="1">
+        <v>96</v>
+      </c>
+      <c r="L8" s="1">
+        <v>97</v>
+      </c>
+      <c r="M8" s="1">
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -952,35 +1147,35 @@
       <c r="C9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>16</v>
+      <c r="D9" s="1">
+        <v>69</v>
+      </c>
+      <c r="E9" s="1">
+        <v>70</v>
+      </c>
+      <c r="F9" s="1">
+        <v>71</v>
+      </c>
+      <c r="G9" s="1">
+        <v>72</v>
+      </c>
+      <c r="H9" s="1">
+        <v>73</v>
+      </c>
+      <c r="I9" s="1">
+        <v>74</v>
+      </c>
+      <c r="J9" s="1">
+        <v>99</v>
+      </c>
+      <c r="K9" s="1">
+        <v>100</v>
+      </c>
+      <c r="L9" s="1">
+        <v>101</v>
+      </c>
+      <c r="M9" s="1">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1152,10 +1347,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P112"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M108" sqref="M108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1456,6 +1651,4748 @@
         <v>74</v>
       </c>
     </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7">
+        <v>65</v>
+      </c>
+      <c r="F7">
+        <v>65</v>
+      </c>
+      <c r="G7">
+        <v>60</v>
+      </c>
+      <c r="H7">
+        <v>110</v>
+      </c>
+      <c r="I7">
+        <v>95</v>
+      </c>
+      <c r="J7">
+        <v>130</v>
+      </c>
+      <c r="K7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" t="s">
+        <v>66</v>
+      </c>
+      <c r="N7" t="s">
+        <v>79</v>
+      </c>
+      <c r="O7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8">
+        <v>55</v>
+      </c>
+      <c r="F8">
+        <v>50</v>
+      </c>
+      <c r="G8">
+        <v>45</v>
+      </c>
+      <c r="H8">
+        <v>135</v>
+      </c>
+      <c r="I8">
+        <v>95</v>
+      </c>
+      <c r="J8">
+        <v>120</v>
+      </c>
+      <c r="K8" t="s">
+        <v>83</v>
+      </c>
+      <c r="L8" t="s">
+        <v>82</v>
+      </c>
+      <c r="M8" t="s">
+        <v>66</v>
+      </c>
+      <c r="N8" t="s">
+        <v>84</v>
+      </c>
+      <c r="O8" t="s">
+        <v>67</v>
+      </c>
+      <c r="P8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9">
+        <v>160</v>
+      </c>
+      <c r="F9">
+        <v>110</v>
+      </c>
+      <c r="G9">
+        <v>65</v>
+      </c>
+      <c r="H9">
+        <v>65</v>
+      </c>
+      <c r="I9">
+        <v>110</v>
+      </c>
+      <c r="J9">
+        <v>30</v>
+      </c>
+      <c r="K9" t="s">
+        <v>87</v>
+      </c>
+      <c r="L9" t="s">
+        <v>88</v>
+      </c>
+      <c r="M9" t="s">
+        <v>61</v>
+      </c>
+      <c r="N9" t="s">
+        <v>89</v>
+      </c>
+      <c r="O9" t="s">
+        <v>90</v>
+      </c>
+      <c r="P9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10">
+        <v>95</v>
+      </c>
+      <c r="F10">
+        <v>125</v>
+      </c>
+      <c r="G10">
+        <v>79</v>
+      </c>
+      <c r="H10">
+        <v>60</v>
+      </c>
+      <c r="I10">
+        <v>100</v>
+      </c>
+      <c r="J10">
+        <v>81</v>
+      </c>
+      <c r="K10" t="s">
+        <v>91</v>
+      </c>
+      <c r="L10" t="s">
+        <v>92</v>
+      </c>
+      <c r="M10" t="s">
+        <v>61</v>
+      </c>
+      <c r="N10" t="s">
+        <v>72</v>
+      </c>
+      <c r="O10" t="s">
+        <v>93</v>
+      </c>
+      <c r="P10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11">
+        <v>95</v>
+      </c>
+      <c r="F11">
+        <v>95</v>
+      </c>
+      <c r="G11">
+        <v>85</v>
+      </c>
+      <c r="H11">
+        <v>125</v>
+      </c>
+      <c r="I11">
+        <v>75</v>
+      </c>
+      <c r="J11">
+        <v>55</v>
+      </c>
+      <c r="K11" t="s">
+        <v>95</v>
+      </c>
+      <c r="L11" t="s">
+        <v>82</v>
+      </c>
+      <c r="M11" t="s">
+        <v>96</v>
+      </c>
+      <c r="N11" t="s">
+        <v>97</v>
+      </c>
+      <c r="O11" t="s">
+        <v>62</v>
+      </c>
+      <c r="P11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12">
+        <v>106</v>
+      </c>
+      <c r="F12">
+        <v>110</v>
+      </c>
+      <c r="G12">
+        <v>90</v>
+      </c>
+      <c r="H12">
+        <v>154</v>
+      </c>
+      <c r="I12">
+        <v>90</v>
+      </c>
+      <c r="J12">
+        <v>130</v>
+      </c>
+      <c r="K12" t="s">
+        <v>99</v>
+      </c>
+      <c r="L12" t="s">
+        <v>100</v>
+      </c>
+      <c r="M12" t="s">
+        <v>66</v>
+      </c>
+      <c r="N12" t="s">
+        <v>101</v>
+      </c>
+      <c r="O12" t="s">
+        <v>45</v>
+      </c>
+      <c r="P12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13">
+        <v>80</v>
+      </c>
+      <c r="F13">
+        <v>120</v>
+      </c>
+      <c r="G13">
+        <v>70</v>
+      </c>
+      <c r="H13">
+        <v>110</v>
+      </c>
+      <c r="I13">
+        <v>70</v>
+      </c>
+      <c r="J13">
+        <v>80</v>
+      </c>
+      <c r="K13" t="s">
+        <v>104</v>
+      </c>
+      <c r="L13" t="s">
+        <v>105</v>
+      </c>
+      <c r="M13" t="s">
+        <v>106</v>
+      </c>
+      <c r="N13" t="s">
+        <v>107</v>
+      </c>
+      <c r="O13" t="s">
+        <v>61</v>
+      </c>
+      <c r="P13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14">
+        <v>100</v>
+      </c>
+      <c r="F14">
+        <v>134</v>
+      </c>
+      <c r="G14">
+        <v>110</v>
+      </c>
+      <c r="H14">
+        <v>95</v>
+      </c>
+      <c r="I14">
+        <v>100</v>
+      </c>
+      <c r="J14">
+        <v>61</v>
+      </c>
+      <c r="K14" t="s">
+        <v>111</v>
+      </c>
+      <c r="L14" t="s">
+        <v>112</v>
+      </c>
+      <c r="M14" t="s">
+        <v>90</v>
+      </c>
+      <c r="N14" t="s">
+        <v>72</v>
+      </c>
+      <c r="O14" t="s">
+        <v>61</v>
+      </c>
+      <c r="P14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15">
+        <v>80</v>
+      </c>
+      <c r="F15">
+        <v>135</v>
+      </c>
+      <c r="G15">
+        <v>130</v>
+      </c>
+      <c r="H15">
+        <v>95</v>
+      </c>
+      <c r="I15">
+        <v>90</v>
+      </c>
+      <c r="J15">
+        <v>70</v>
+      </c>
+      <c r="K15" t="s">
+        <v>115</v>
+      </c>
+      <c r="L15" t="s">
+        <v>116</v>
+      </c>
+      <c r="M15" t="s">
+        <v>61</v>
+      </c>
+      <c r="N15" t="s">
+        <v>117</v>
+      </c>
+      <c r="O15" t="s">
+        <v>118</v>
+      </c>
+      <c r="P15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16">
+        <v>95</v>
+      </c>
+      <c r="F16">
+        <v>135</v>
+      </c>
+      <c r="G16">
+        <v>80</v>
+      </c>
+      <c r="H16">
+        <v>110</v>
+      </c>
+      <c r="I16">
+        <v>80</v>
+      </c>
+      <c r="J16">
+        <v>100</v>
+      </c>
+      <c r="K16" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" t="s">
+        <v>47</v>
+      </c>
+      <c r="M16" t="s">
+        <v>120</v>
+      </c>
+      <c r="N16" t="s">
+        <v>72</v>
+      </c>
+      <c r="O16" t="s">
+        <v>90</v>
+      </c>
+      <c r="P16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" t="s">
+        <v>122</v>
+      </c>
+      <c r="E17">
+        <v>108</v>
+      </c>
+      <c r="F17">
+        <v>130</v>
+      </c>
+      <c r="G17">
+        <v>95</v>
+      </c>
+      <c r="H17">
+        <v>80</v>
+      </c>
+      <c r="I17">
+        <v>85</v>
+      </c>
+      <c r="J17">
+        <v>102</v>
+      </c>
+      <c r="K17" t="s">
+        <v>123</v>
+      </c>
+      <c r="L17" t="s">
+        <v>61</v>
+      </c>
+      <c r="M17" t="s">
+        <v>47</v>
+      </c>
+      <c r="N17" t="s">
+        <v>124</v>
+      </c>
+      <c r="O17" t="s">
+        <v>125</v>
+      </c>
+      <c r="P17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>127</v>
+      </c>
+      <c r="D18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18">
+        <v>85</v>
+      </c>
+      <c r="F18">
+        <v>60</v>
+      </c>
+      <c r="G18">
+        <v>65</v>
+      </c>
+      <c r="H18">
+        <v>135</v>
+      </c>
+      <c r="I18">
+        <v>105</v>
+      </c>
+      <c r="J18">
+        <v>100</v>
+      </c>
+      <c r="K18" t="s">
+        <v>128</v>
+      </c>
+      <c r="L18" t="s">
+        <v>129</v>
+      </c>
+      <c r="M18" t="s">
+        <v>130</v>
+      </c>
+      <c r="N18" t="s">
+        <v>131</v>
+      </c>
+      <c r="O18" t="s">
+        <v>132</v>
+      </c>
+      <c r="P18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20">
+        <v>35</v>
+      </c>
+      <c r="F20">
+        <v>55</v>
+      </c>
+      <c r="G20">
+        <v>40</v>
+      </c>
+      <c r="H20">
+        <v>50</v>
+      </c>
+      <c r="I20">
+        <v>50</v>
+      </c>
+      <c r="J20">
+        <v>90</v>
+      </c>
+      <c r="K20" t="s">
+        <v>36</v>
+      </c>
+      <c r="L20" t="s">
+        <v>37</v>
+      </c>
+      <c r="M20" t="s">
+        <v>38</v>
+      </c>
+      <c r="N20" t="s">
+        <v>39</v>
+      </c>
+      <c r="O20" t="s">
+        <v>40</v>
+      </c>
+      <c r="P20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21">
+        <v>78</v>
+      </c>
+      <c r="F21">
+        <v>84</v>
+      </c>
+      <c r="G21">
+        <v>78</v>
+      </c>
+      <c r="H21">
+        <v>109</v>
+      </c>
+      <c r="I21">
+        <v>85</v>
+      </c>
+      <c r="J21">
+        <v>100</v>
+      </c>
+      <c r="K21" t="s">
+        <v>44</v>
+      </c>
+      <c r="L21" t="s">
+        <v>45</v>
+      </c>
+      <c r="M21" t="s">
+        <v>46</v>
+      </c>
+      <c r="N21" t="s">
+        <v>47</v>
+      </c>
+      <c r="O21" t="s">
+        <v>48</v>
+      </c>
+      <c r="P21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22">
+        <v>79</v>
+      </c>
+      <c r="F22">
+        <v>83</v>
+      </c>
+      <c r="G22">
+        <v>100</v>
+      </c>
+      <c r="H22">
+        <v>85</v>
+      </c>
+      <c r="I22">
+        <v>105</v>
+      </c>
+      <c r="J22">
+        <v>78</v>
+      </c>
+      <c r="K22" t="s">
+        <v>51</v>
+      </c>
+      <c r="L22" t="s">
+        <v>52</v>
+      </c>
+      <c r="M22" t="s">
+        <v>53</v>
+      </c>
+      <c r="N22" t="s">
+        <v>54</v>
+      </c>
+      <c r="O22" t="s">
+        <v>55</v>
+      </c>
+      <c r="P22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23">
+        <v>80</v>
+      </c>
+      <c r="F23">
+        <v>82</v>
+      </c>
+      <c r="G23">
+        <v>83</v>
+      </c>
+      <c r="H23">
+        <v>100</v>
+      </c>
+      <c r="I23">
+        <v>100</v>
+      </c>
+      <c r="J23">
+        <v>80</v>
+      </c>
+      <c r="K23" t="s">
+        <v>59</v>
+      </c>
+      <c r="L23" t="s">
+        <v>48</v>
+      </c>
+      <c r="M23" t="s">
+        <v>60</v>
+      </c>
+      <c r="N23" t="s">
+        <v>61</v>
+      </c>
+      <c r="O23" t="s">
+        <v>62</v>
+      </c>
+      <c r="P23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24">
+        <v>60</v>
+      </c>
+      <c r="F24">
+        <v>65</v>
+      </c>
+      <c r="G24">
+        <v>60</v>
+      </c>
+      <c r="H24">
+        <v>130</v>
+      </c>
+      <c r="I24">
+        <v>75</v>
+      </c>
+      <c r="J24">
+        <v>110</v>
+      </c>
+      <c r="K24" t="s">
+        <v>65</v>
+      </c>
+      <c r="L24" t="s">
+        <v>66</v>
+      </c>
+      <c r="M24" t="s">
+        <v>60</v>
+      </c>
+      <c r="N24" t="s">
+        <v>67</v>
+      </c>
+      <c r="O24" t="s">
+        <v>37</v>
+      </c>
+      <c r="P24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25">
+        <v>91</v>
+      </c>
+      <c r="F25">
+        <v>134</v>
+      </c>
+      <c r="G25">
+        <v>95</v>
+      </c>
+      <c r="H25">
+        <v>100</v>
+      </c>
+      <c r="I25">
+        <v>100</v>
+      </c>
+      <c r="J25">
+        <v>80</v>
+      </c>
+      <c r="K25" t="s">
+        <v>70</v>
+      </c>
+      <c r="L25" t="s">
+        <v>71</v>
+      </c>
+      <c r="M25" t="s">
+        <v>72</v>
+      </c>
+      <c r="N25" t="s">
+        <v>61</v>
+      </c>
+      <c r="O25" t="s">
+        <v>73</v>
+      </c>
+      <c r="P25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26">
+        <v>78</v>
+      </c>
+      <c r="F26">
+        <v>84</v>
+      </c>
+      <c r="G26">
+        <v>78</v>
+      </c>
+      <c r="H26">
+        <v>109</v>
+      </c>
+      <c r="I26">
+        <v>85</v>
+      </c>
+      <c r="J26">
+        <v>100</v>
+      </c>
+      <c r="K26" t="s">
+        <v>44</v>
+      </c>
+      <c r="L26" t="s">
+        <v>45</v>
+      </c>
+      <c r="M26" t="s">
+        <v>133</v>
+      </c>
+      <c r="N26" t="s">
+        <v>134</v>
+      </c>
+      <c r="O26" t="s">
+        <v>135</v>
+      </c>
+      <c r="P26" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27">
+        <v>78</v>
+      </c>
+      <c r="F27">
+        <v>84</v>
+      </c>
+      <c r="G27">
+        <v>78</v>
+      </c>
+      <c r="H27">
+        <v>109</v>
+      </c>
+      <c r="I27">
+        <v>85</v>
+      </c>
+      <c r="J27">
+        <v>100</v>
+      </c>
+      <c r="K27" t="s">
+        <v>44</v>
+      </c>
+      <c r="L27" t="s">
+        <v>137</v>
+      </c>
+      <c r="M27" t="s">
+        <v>46</v>
+      </c>
+      <c r="N27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O27" t="s">
+        <v>67</v>
+      </c>
+      <c r="P27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28">
+        <v>78</v>
+      </c>
+      <c r="F28">
+        <v>84</v>
+      </c>
+      <c r="G28">
+        <v>78</v>
+      </c>
+      <c r="H28">
+        <v>109</v>
+      </c>
+      <c r="I28">
+        <v>85</v>
+      </c>
+      <c r="J28">
+        <v>100</v>
+      </c>
+      <c r="K28" t="s">
+        <v>44</v>
+      </c>
+      <c r="L28" t="s">
+        <v>105</v>
+      </c>
+      <c r="M28" t="s">
+        <v>72</v>
+      </c>
+      <c r="N28" t="s">
+        <v>135</v>
+      </c>
+      <c r="O28" t="s">
+        <v>138</v>
+      </c>
+      <c r="P28" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29">
+        <v>78</v>
+      </c>
+      <c r="F29">
+        <v>84</v>
+      </c>
+      <c r="G29">
+        <v>78</v>
+      </c>
+      <c r="H29">
+        <v>109</v>
+      </c>
+      <c r="I29">
+        <v>85</v>
+      </c>
+      <c r="J29">
+        <v>100</v>
+      </c>
+      <c r="K29" t="s">
+        <v>44</v>
+      </c>
+      <c r="L29" t="s">
+        <v>133</v>
+      </c>
+      <c r="M29" t="s">
+        <v>46</v>
+      </c>
+      <c r="N29" t="s">
+        <v>134</v>
+      </c>
+      <c r="O29" t="s">
+        <v>67</v>
+      </c>
+      <c r="P29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31">
+        <v>65</v>
+      </c>
+      <c r="F31">
+        <v>65</v>
+      </c>
+      <c r="G31">
+        <v>60</v>
+      </c>
+      <c r="H31">
+        <v>110</v>
+      </c>
+      <c r="I31">
+        <v>95</v>
+      </c>
+      <c r="J31">
+        <v>130</v>
+      </c>
+      <c r="K31" t="s">
+        <v>78</v>
+      </c>
+      <c r="L31" t="s">
+        <v>37</v>
+      </c>
+      <c r="M31" t="s">
+        <v>66</v>
+      </c>
+      <c r="N31" t="s">
+        <v>79</v>
+      </c>
+      <c r="O31" t="s">
+        <v>80</v>
+      </c>
+      <c r="P31" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>82</v>
+      </c>
+      <c r="E32">
+        <v>55</v>
+      </c>
+      <c r="F32">
+        <v>50</v>
+      </c>
+      <c r="G32">
+        <v>45</v>
+      </c>
+      <c r="H32">
+        <v>135</v>
+      </c>
+      <c r="I32">
+        <v>95</v>
+      </c>
+      <c r="J32">
+        <v>120</v>
+      </c>
+      <c r="K32" t="s">
+        <v>83</v>
+      </c>
+      <c r="L32" t="s">
+        <v>82</v>
+      </c>
+      <c r="M32" t="s">
+        <v>66</v>
+      </c>
+      <c r="N32" t="s">
+        <v>84</v>
+      </c>
+      <c r="O32" t="s">
+        <v>67</v>
+      </c>
+      <c r="P32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" t="s">
+        <v>86</v>
+      </c>
+      <c r="E33">
+        <v>160</v>
+      </c>
+      <c r="F33">
+        <v>110</v>
+      </c>
+      <c r="G33">
+        <v>65</v>
+      </c>
+      <c r="H33">
+        <v>65</v>
+      </c>
+      <c r="I33">
+        <v>110</v>
+      </c>
+      <c r="J33">
+        <v>30</v>
+      </c>
+      <c r="K33" t="s">
+        <v>87</v>
+      </c>
+      <c r="L33" t="s">
+        <v>88</v>
+      </c>
+      <c r="M33" t="s">
+        <v>61</v>
+      </c>
+      <c r="N33" t="s">
+        <v>89</v>
+      </c>
+      <c r="O33" t="s">
+        <v>90</v>
+      </c>
+      <c r="P33" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34">
+        <v>95</v>
+      </c>
+      <c r="F34">
+        <v>125</v>
+      </c>
+      <c r="G34">
+        <v>79</v>
+      </c>
+      <c r="H34">
+        <v>60</v>
+      </c>
+      <c r="I34">
+        <v>100</v>
+      </c>
+      <c r="J34">
+        <v>81</v>
+      </c>
+      <c r="K34" t="s">
+        <v>91</v>
+      </c>
+      <c r="L34" t="s">
+        <v>92</v>
+      </c>
+      <c r="M34" t="s">
+        <v>61</v>
+      </c>
+      <c r="N34" t="s">
+        <v>72</v>
+      </c>
+      <c r="O34" t="s">
+        <v>93</v>
+      </c>
+      <c r="P34" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" t="s">
+        <v>82</v>
+      </c>
+      <c r="E35">
+        <v>95</v>
+      </c>
+      <c r="F35">
+        <v>95</v>
+      </c>
+      <c r="G35">
+        <v>85</v>
+      </c>
+      <c r="H35">
+        <v>125</v>
+      </c>
+      <c r="I35">
+        <v>75</v>
+      </c>
+      <c r="J35">
+        <v>55</v>
+      </c>
+      <c r="K35" t="s">
+        <v>95</v>
+      </c>
+      <c r="L35" t="s">
+        <v>82</v>
+      </c>
+      <c r="M35" t="s">
+        <v>96</v>
+      </c>
+      <c r="N35" t="s">
+        <v>97</v>
+      </c>
+      <c r="O35" t="s">
+        <v>62</v>
+      </c>
+      <c r="P35" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" t="s">
+        <v>82</v>
+      </c>
+      <c r="E36">
+        <v>106</v>
+      </c>
+      <c r="F36">
+        <v>110</v>
+      </c>
+      <c r="G36">
+        <v>90</v>
+      </c>
+      <c r="H36">
+        <v>154</v>
+      </c>
+      <c r="I36">
+        <v>90</v>
+      </c>
+      <c r="J36">
+        <v>130</v>
+      </c>
+      <c r="K36" t="s">
+        <v>99</v>
+      </c>
+      <c r="L36" t="s">
+        <v>100</v>
+      </c>
+      <c r="M36" t="s">
+        <v>66</v>
+      </c>
+      <c r="N36" t="s">
+        <v>101</v>
+      </c>
+      <c r="O36" t="s">
+        <v>45</v>
+      </c>
+      <c r="P36" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" t="s">
+        <v>82</v>
+      </c>
+      <c r="E37">
+        <v>55</v>
+      </c>
+      <c r="F37">
+        <v>50</v>
+      </c>
+      <c r="G37">
+        <v>45</v>
+      </c>
+      <c r="H37">
+        <v>135</v>
+      </c>
+      <c r="I37">
+        <v>95</v>
+      </c>
+      <c r="J37">
+        <v>120</v>
+      </c>
+      <c r="K37" t="s">
+        <v>83</v>
+      </c>
+      <c r="L37" t="s">
+        <v>82</v>
+      </c>
+      <c r="M37" t="s">
+        <v>139</v>
+      </c>
+      <c r="N37" t="s">
+        <v>66</v>
+      </c>
+      <c r="O37" t="s">
+        <v>140</v>
+      </c>
+      <c r="P37" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s">
+        <v>82</v>
+      </c>
+      <c r="E38">
+        <v>55</v>
+      </c>
+      <c r="F38">
+        <v>50</v>
+      </c>
+      <c r="G38">
+        <v>45</v>
+      </c>
+      <c r="H38">
+        <v>135</v>
+      </c>
+      <c r="I38">
+        <v>95</v>
+      </c>
+      <c r="J38">
+        <v>120</v>
+      </c>
+      <c r="K38" t="s">
+        <v>83</v>
+      </c>
+      <c r="L38" t="s">
+        <v>82</v>
+      </c>
+      <c r="M38" t="s">
+        <v>67</v>
+      </c>
+      <c r="N38" t="s">
+        <v>84</v>
+      </c>
+      <c r="O38" t="s">
+        <v>141</v>
+      </c>
+      <c r="P38" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" t="s">
+        <v>82</v>
+      </c>
+      <c r="E39">
+        <v>55</v>
+      </c>
+      <c r="F39">
+        <v>50</v>
+      </c>
+      <c r="G39">
+        <v>45</v>
+      </c>
+      <c r="H39">
+        <v>135</v>
+      </c>
+      <c r="I39">
+        <v>95</v>
+      </c>
+      <c r="J39">
+        <v>120</v>
+      </c>
+      <c r="K39" t="s">
+        <v>83</v>
+      </c>
+      <c r="L39" t="s">
+        <v>82</v>
+      </c>
+      <c r="M39" t="s">
+        <v>66</v>
+      </c>
+      <c r="N39" t="s">
+        <v>84</v>
+      </c>
+      <c r="O39" t="s">
+        <v>139</v>
+      </c>
+      <c r="P39" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" t="s">
+        <v>82</v>
+      </c>
+      <c r="E40">
+        <v>55</v>
+      </c>
+      <c r="F40">
+        <v>50</v>
+      </c>
+      <c r="G40">
+        <v>45</v>
+      </c>
+      <c r="H40">
+        <v>135</v>
+      </c>
+      <c r="I40">
+        <v>95</v>
+      </c>
+      <c r="J40">
+        <v>120</v>
+      </c>
+      <c r="K40" t="s">
+        <v>83</v>
+      </c>
+      <c r="L40" t="s">
+        <v>82</v>
+      </c>
+      <c r="M40" t="s">
+        <v>67</v>
+      </c>
+      <c r="N40" t="s">
+        <v>66</v>
+      </c>
+      <c r="O40" t="s">
+        <v>142</v>
+      </c>
+      <c r="P40" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>39</v>
+      </c>
+      <c r="B42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" t="s">
+        <v>42</v>
+      </c>
+      <c r="D42" t="s">
+        <v>103</v>
+      </c>
+      <c r="E42">
+        <v>80</v>
+      </c>
+      <c r="F42">
+        <v>120</v>
+      </c>
+      <c r="G42">
+        <v>70</v>
+      </c>
+      <c r="H42">
+        <v>110</v>
+      </c>
+      <c r="I42">
+        <v>70</v>
+      </c>
+      <c r="J42">
+        <v>80</v>
+      </c>
+      <c r="K42" t="s">
+        <v>104</v>
+      </c>
+      <c r="L42" t="s">
+        <v>105</v>
+      </c>
+      <c r="M42" t="s">
+        <v>106</v>
+      </c>
+      <c r="N42" t="s">
+        <v>107</v>
+      </c>
+      <c r="O42" t="s">
+        <v>61</v>
+      </c>
+      <c r="P42" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>40</v>
+      </c>
+      <c r="B43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" t="s">
+        <v>109</v>
+      </c>
+      <c r="D43" t="s">
+        <v>110</v>
+      </c>
+      <c r="E43">
+        <v>100</v>
+      </c>
+      <c r="F43">
+        <v>134</v>
+      </c>
+      <c r="G43">
+        <v>110</v>
+      </c>
+      <c r="H43">
+        <v>95</v>
+      </c>
+      <c r="I43">
+        <v>100</v>
+      </c>
+      <c r="J43">
+        <v>61</v>
+      </c>
+      <c r="K43" t="s">
+        <v>111</v>
+      </c>
+      <c r="L43" t="s">
+        <v>112</v>
+      </c>
+      <c r="M43" t="s">
+        <v>90</v>
+      </c>
+      <c r="N43" t="s">
+        <v>72</v>
+      </c>
+      <c r="O43" t="s">
+        <v>61</v>
+      </c>
+      <c r="P43" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>41</v>
+      </c>
+      <c r="B44" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" t="s">
+        <v>114</v>
+      </c>
+      <c r="D44" t="s">
+        <v>82</v>
+      </c>
+      <c r="E44">
+        <v>80</v>
+      </c>
+      <c r="F44">
+        <v>135</v>
+      </c>
+      <c r="G44">
+        <v>130</v>
+      </c>
+      <c r="H44">
+        <v>95</v>
+      </c>
+      <c r="I44">
+        <v>90</v>
+      </c>
+      <c r="J44">
+        <v>70</v>
+      </c>
+      <c r="K44" t="s">
+        <v>115</v>
+      </c>
+      <c r="L44" t="s">
+        <v>116</v>
+      </c>
+      <c r="M44" t="s">
+        <v>61</v>
+      </c>
+      <c r="N44" t="s">
+        <v>117</v>
+      </c>
+      <c r="O44" t="s">
+        <v>118</v>
+      </c>
+      <c r="P44" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>42</v>
+      </c>
+      <c r="B45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" t="s">
+        <v>69</v>
+      </c>
+      <c r="D45" t="s">
+        <v>43</v>
+      </c>
+      <c r="E45">
+        <v>95</v>
+      </c>
+      <c r="F45">
+        <v>135</v>
+      </c>
+      <c r="G45">
+        <v>80</v>
+      </c>
+      <c r="H45">
+        <v>110</v>
+      </c>
+      <c r="I45">
+        <v>80</v>
+      </c>
+      <c r="J45">
+        <v>100</v>
+      </c>
+      <c r="K45" t="s">
+        <v>91</v>
+      </c>
+      <c r="L45" t="s">
+        <v>47</v>
+      </c>
+      <c r="M45" t="s">
+        <v>120</v>
+      </c>
+      <c r="N45" t="s">
+        <v>72</v>
+      </c>
+      <c r="O45" t="s">
+        <v>90</v>
+      </c>
+      <c r="P45" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>43</v>
+      </c>
+      <c r="B46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" t="s">
+        <v>69</v>
+      </c>
+      <c r="D46" t="s">
+        <v>122</v>
+      </c>
+      <c r="E46">
+        <v>108</v>
+      </c>
+      <c r="F46">
+        <v>130</v>
+      </c>
+      <c r="G46">
+        <v>95</v>
+      </c>
+      <c r="H46">
+        <v>80</v>
+      </c>
+      <c r="I46">
+        <v>85</v>
+      </c>
+      <c r="J46">
+        <v>102</v>
+      </c>
+      <c r="K46" t="s">
+        <v>123</v>
+      </c>
+      <c r="L46" t="s">
+        <v>61</v>
+      </c>
+      <c r="M46" t="s">
+        <v>47</v>
+      </c>
+      <c r="N46" t="s">
+        <v>124</v>
+      </c>
+      <c r="O46" t="s">
+        <v>125</v>
+      </c>
+      <c r="P46" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>44</v>
+      </c>
+      <c r="B47" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" t="s">
+        <v>127</v>
+      </c>
+      <c r="D47" t="s">
+        <v>42</v>
+      </c>
+      <c r="E47">
+        <v>85</v>
+      </c>
+      <c r="F47">
+        <v>60</v>
+      </c>
+      <c r="G47">
+        <v>65</v>
+      </c>
+      <c r="H47">
+        <v>135</v>
+      </c>
+      <c r="I47">
+        <v>105</v>
+      </c>
+      <c r="J47">
+        <v>100</v>
+      </c>
+      <c r="K47" t="s">
+        <v>128</v>
+      </c>
+      <c r="L47" t="s">
+        <v>129</v>
+      </c>
+      <c r="M47" t="s">
+        <v>130</v>
+      </c>
+      <c r="N47" t="s">
+        <v>131</v>
+      </c>
+      <c r="O47" t="s">
+        <v>132</v>
+      </c>
+      <c r="P47" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>45</v>
+      </c>
+      <c r="B48" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" t="s">
+        <v>109</v>
+      </c>
+      <c r="D48" t="s">
+        <v>110</v>
+      </c>
+      <c r="E48">
+        <v>100</v>
+      </c>
+      <c r="F48">
+        <v>134</v>
+      </c>
+      <c r="G48">
+        <v>110</v>
+      </c>
+      <c r="H48">
+        <v>95</v>
+      </c>
+      <c r="I48">
+        <v>100</v>
+      </c>
+      <c r="J48">
+        <v>61</v>
+      </c>
+      <c r="K48" t="s">
+        <v>111</v>
+      </c>
+      <c r="L48" t="s">
+        <v>112</v>
+      </c>
+      <c r="M48" t="s">
+        <v>90</v>
+      </c>
+      <c r="N48" t="s">
+        <v>72</v>
+      </c>
+      <c r="O48" t="s">
+        <v>61</v>
+      </c>
+      <c r="P48" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>46</v>
+      </c>
+      <c r="B49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" t="s">
+        <v>109</v>
+      </c>
+      <c r="D49" t="s">
+        <v>110</v>
+      </c>
+      <c r="E49">
+        <v>100</v>
+      </c>
+      <c r="F49">
+        <v>134</v>
+      </c>
+      <c r="G49">
+        <v>110</v>
+      </c>
+      <c r="H49">
+        <v>95</v>
+      </c>
+      <c r="I49">
+        <v>100</v>
+      </c>
+      <c r="J49">
+        <v>61</v>
+      </c>
+      <c r="K49" t="s">
+        <v>111</v>
+      </c>
+      <c r="L49" t="s">
+        <v>112</v>
+      </c>
+      <c r="M49" t="s">
+        <v>90</v>
+      </c>
+      <c r="N49" t="s">
+        <v>72</v>
+      </c>
+      <c r="O49" t="s">
+        <v>61</v>
+      </c>
+      <c r="P49" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>47</v>
+      </c>
+      <c r="B50" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" t="s">
+        <v>109</v>
+      </c>
+      <c r="D50" t="s">
+        <v>110</v>
+      </c>
+      <c r="E50">
+        <v>100</v>
+      </c>
+      <c r="F50">
+        <v>134</v>
+      </c>
+      <c r="G50">
+        <v>110</v>
+      </c>
+      <c r="H50">
+        <v>95</v>
+      </c>
+      <c r="I50">
+        <v>100</v>
+      </c>
+      <c r="J50">
+        <v>61</v>
+      </c>
+      <c r="K50" t="s">
+        <v>111</v>
+      </c>
+      <c r="L50" t="s">
+        <v>112</v>
+      </c>
+      <c r="M50" t="s">
+        <v>90</v>
+      </c>
+      <c r="N50" t="s">
+        <v>72</v>
+      </c>
+      <c r="O50" t="s">
+        <v>61</v>
+      </c>
+      <c r="P50" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>48</v>
+      </c>
+      <c r="B51" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" t="s">
+        <v>109</v>
+      </c>
+      <c r="D51" t="s">
+        <v>110</v>
+      </c>
+      <c r="E51">
+        <v>100</v>
+      </c>
+      <c r="F51">
+        <v>134</v>
+      </c>
+      <c r="G51">
+        <v>110</v>
+      </c>
+      <c r="H51">
+        <v>95</v>
+      </c>
+      <c r="I51">
+        <v>100</v>
+      </c>
+      <c r="J51">
+        <v>61</v>
+      </c>
+      <c r="K51" t="s">
+        <v>111</v>
+      </c>
+      <c r="L51" t="s">
+        <v>112</v>
+      </c>
+      <c r="M51" t="s">
+        <v>90</v>
+      </c>
+      <c r="N51" t="s">
+        <v>72</v>
+      </c>
+      <c r="O51" t="s">
+        <v>61</v>
+      </c>
+      <c r="P51" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>49</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>35</v>
+      </c>
+      <c r="E53">
+        <v>35</v>
+      </c>
+      <c r="F53">
+        <v>55</v>
+      </c>
+      <c r="G53">
+        <v>40</v>
+      </c>
+      <c r="H53">
+        <v>50</v>
+      </c>
+      <c r="I53">
+        <v>50</v>
+      </c>
+      <c r="J53">
+        <v>90</v>
+      </c>
+      <c r="K53" t="s">
+        <v>36</v>
+      </c>
+      <c r="L53" t="s">
+        <v>37</v>
+      </c>
+      <c r="M53" t="s">
+        <v>38</v>
+      </c>
+      <c r="N53" t="s">
+        <v>39</v>
+      </c>
+      <c r="O53" t="s">
+        <v>40</v>
+      </c>
+      <c r="P53" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>50</v>
+      </c>
+      <c r="B54" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54" t="s">
+        <v>42</v>
+      </c>
+      <c r="D54" t="s">
+        <v>43</v>
+      </c>
+      <c r="E54">
+        <v>78</v>
+      </c>
+      <c r="F54">
+        <v>84</v>
+      </c>
+      <c r="G54">
+        <v>78</v>
+      </c>
+      <c r="H54">
+        <v>109</v>
+      </c>
+      <c r="I54">
+        <v>85</v>
+      </c>
+      <c r="J54">
+        <v>100</v>
+      </c>
+      <c r="K54" t="s">
+        <v>44</v>
+      </c>
+      <c r="L54" t="s">
+        <v>45</v>
+      </c>
+      <c r="M54" t="s">
+        <v>46</v>
+      </c>
+      <c r="N54" t="s">
+        <v>47</v>
+      </c>
+      <c r="O54" t="s">
+        <v>48</v>
+      </c>
+      <c r="P54" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>51</v>
+      </c>
+      <c r="B55" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" t="s">
+        <v>50</v>
+      </c>
+      <c r="E55">
+        <v>79</v>
+      </c>
+      <c r="F55">
+        <v>83</v>
+      </c>
+      <c r="G55">
+        <v>100</v>
+      </c>
+      <c r="H55">
+        <v>85</v>
+      </c>
+      <c r="I55">
+        <v>105</v>
+      </c>
+      <c r="J55">
+        <v>78</v>
+      </c>
+      <c r="K55" t="s">
+        <v>51</v>
+      </c>
+      <c r="L55" t="s">
+        <v>52</v>
+      </c>
+      <c r="M55" t="s">
+        <v>53</v>
+      </c>
+      <c r="N55" t="s">
+        <v>54</v>
+      </c>
+      <c r="O55" t="s">
+        <v>55</v>
+      </c>
+      <c r="P55" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>52</v>
+      </c>
+      <c r="B56" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" t="s">
+        <v>57</v>
+      </c>
+      <c r="D56" t="s">
+        <v>58</v>
+      </c>
+      <c r="E56">
+        <v>80</v>
+      </c>
+      <c r="F56">
+        <v>82</v>
+      </c>
+      <c r="G56">
+        <v>83</v>
+      </c>
+      <c r="H56">
+        <v>100</v>
+      </c>
+      <c r="I56">
+        <v>100</v>
+      </c>
+      <c r="J56">
+        <v>80</v>
+      </c>
+      <c r="K56" t="s">
+        <v>59</v>
+      </c>
+      <c r="L56" t="s">
+        <v>48</v>
+      </c>
+      <c r="M56" t="s">
+        <v>60</v>
+      </c>
+      <c r="N56" t="s">
+        <v>61</v>
+      </c>
+      <c r="O56" t="s">
+        <v>62</v>
+      </c>
+      <c r="P56" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>53</v>
+      </c>
+      <c r="B57" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" t="s">
+        <v>64</v>
+      </c>
+      <c r="D57" t="s">
+        <v>58</v>
+      </c>
+      <c r="E57">
+        <v>60</v>
+      </c>
+      <c r="F57">
+        <v>65</v>
+      </c>
+      <c r="G57">
+        <v>60</v>
+      </c>
+      <c r="H57">
+        <v>130</v>
+      </c>
+      <c r="I57">
+        <v>75</v>
+      </c>
+      <c r="J57">
+        <v>110</v>
+      </c>
+      <c r="K57" t="s">
+        <v>65</v>
+      </c>
+      <c r="L57" t="s">
+        <v>66</v>
+      </c>
+      <c r="M57" t="s">
+        <v>60</v>
+      </c>
+      <c r="N57" t="s">
+        <v>67</v>
+      </c>
+      <c r="O57" t="s">
+        <v>37</v>
+      </c>
+      <c r="P57" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>54</v>
+      </c>
+      <c r="B58" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" t="s">
+        <v>69</v>
+      </c>
+      <c r="D58" t="s">
+        <v>43</v>
+      </c>
+      <c r="E58">
+        <v>91</v>
+      </c>
+      <c r="F58">
+        <v>134</v>
+      </c>
+      <c r="G58">
+        <v>95</v>
+      </c>
+      <c r="H58">
+        <v>100</v>
+      </c>
+      <c r="I58">
+        <v>100</v>
+      </c>
+      <c r="J58">
+        <v>80</v>
+      </c>
+      <c r="K58" t="s">
+        <v>70</v>
+      </c>
+      <c r="L58" t="s">
+        <v>71</v>
+      </c>
+      <c r="M58" t="s">
+        <v>72</v>
+      </c>
+      <c r="N58" t="s">
+        <v>61</v>
+      </c>
+      <c r="O58" t="s">
+        <v>73</v>
+      </c>
+      <c r="P58" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>55</v>
+      </c>
+      <c r="B59" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59" t="s">
+        <v>42</v>
+      </c>
+      <c r="D59" t="s">
+        <v>43</v>
+      </c>
+      <c r="E59">
+        <v>78</v>
+      </c>
+      <c r="F59">
+        <v>84</v>
+      </c>
+      <c r="G59">
+        <v>78</v>
+      </c>
+      <c r="H59">
+        <v>109</v>
+      </c>
+      <c r="I59">
+        <v>85</v>
+      </c>
+      <c r="J59">
+        <v>100</v>
+      </c>
+      <c r="K59" t="s">
+        <v>44</v>
+      </c>
+      <c r="L59" t="s">
+        <v>45</v>
+      </c>
+      <c r="M59" t="s">
+        <v>133</v>
+      </c>
+      <c r="N59" t="s">
+        <v>134</v>
+      </c>
+      <c r="O59" t="s">
+        <v>135</v>
+      </c>
+      <c r="P59" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>56</v>
+      </c>
+      <c r="B60" t="s">
+        <v>2</v>
+      </c>
+      <c r="C60" t="s">
+        <v>42</v>
+      </c>
+      <c r="D60" t="s">
+        <v>43</v>
+      </c>
+      <c r="E60">
+        <v>78</v>
+      </c>
+      <c r="F60">
+        <v>84</v>
+      </c>
+      <c r="G60">
+        <v>78</v>
+      </c>
+      <c r="H60">
+        <v>109</v>
+      </c>
+      <c r="I60">
+        <v>85</v>
+      </c>
+      <c r="J60">
+        <v>100</v>
+      </c>
+      <c r="K60" t="s">
+        <v>44</v>
+      </c>
+      <c r="L60" t="s">
+        <v>137</v>
+      </c>
+      <c r="M60" t="s">
+        <v>46</v>
+      </c>
+      <c r="N60" t="s">
+        <v>47</v>
+      </c>
+      <c r="O60" t="s">
+        <v>67</v>
+      </c>
+      <c r="P60" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>57</v>
+      </c>
+      <c r="B61" t="s">
+        <v>2</v>
+      </c>
+      <c r="C61" t="s">
+        <v>42</v>
+      </c>
+      <c r="D61" t="s">
+        <v>43</v>
+      </c>
+      <c r="E61">
+        <v>78</v>
+      </c>
+      <c r="F61">
+        <v>84</v>
+      </c>
+      <c r="G61">
+        <v>78</v>
+      </c>
+      <c r="H61">
+        <v>109</v>
+      </c>
+      <c r="I61">
+        <v>85</v>
+      </c>
+      <c r="J61">
+        <v>100</v>
+      </c>
+      <c r="K61" t="s">
+        <v>44</v>
+      </c>
+      <c r="L61" t="s">
+        <v>105</v>
+      </c>
+      <c r="M61" t="s">
+        <v>72</v>
+      </c>
+      <c r="N61" t="s">
+        <v>135</v>
+      </c>
+      <c r="O61" t="s">
+        <v>138</v>
+      </c>
+      <c r="P61" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>58</v>
+      </c>
+      <c r="B62" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62" t="s">
+        <v>42</v>
+      </c>
+      <c r="D62" t="s">
+        <v>43</v>
+      </c>
+      <c r="E62">
+        <v>78</v>
+      </c>
+      <c r="F62">
+        <v>84</v>
+      </c>
+      <c r="G62">
+        <v>78</v>
+      </c>
+      <c r="H62">
+        <v>109</v>
+      </c>
+      <c r="I62">
+        <v>85</v>
+      </c>
+      <c r="J62">
+        <v>100</v>
+      </c>
+      <c r="K62" t="s">
+        <v>44</v>
+      </c>
+      <c r="L62" t="s">
+        <v>133</v>
+      </c>
+      <c r="M62" t="s">
+        <v>46</v>
+      </c>
+      <c r="N62" t="s">
+        <v>134</v>
+      </c>
+      <c r="O62" t="s">
+        <v>67</v>
+      </c>
+      <c r="P62" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>59</v>
+      </c>
+      <c r="B64" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" t="s">
+        <v>35</v>
+      </c>
+      <c r="E64">
+        <v>65</v>
+      </c>
+      <c r="F64">
+        <v>65</v>
+      </c>
+      <c r="G64">
+        <v>60</v>
+      </c>
+      <c r="H64">
+        <v>110</v>
+      </c>
+      <c r="I64">
+        <v>95</v>
+      </c>
+      <c r="J64">
+        <v>130</v>
+      </c>
+      <c r="K64" t="s">
+        <v>78</v>
+      </c>
+      <c r="L64" t="s">
+        <v>37</v>
+      </c>
+      <c r="M64" t="s">
+        <v>66</v>
+      </c>
+      <c r="N64" t="s">
+        <v>79</v>
+      </c>
+      <c r="O64" t="s">
+        <v>80</v>
+      </c>
+      <c r="P64" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>60</v>
+      </c>
+      <c r="B65" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" t="s">
+        <v>82</v>
+      </c>
+      <c r="E65">
+        <v>55</v>
+      </c>
+      <c r="F65">
+        <v>50</v>
+      </c>
+      <c r="G65">
+        <v>45</v>
+      </c>
+      <c r="H65">
+        <v>135</v>
+      </c>
+      <c r="I65">
+        <v>95</v>
+      </c>
+      <c r="J65">
+        <v>120</v>
+      </c>
+      <c r="K65" t="s">
+        <v>83</v>
+      </c>
+      <c r="L65" t="s">
+        <v>82</v>
+      </c>
+      <c r="M65" t="s">
+        <v>66</v>
+      </c>
+      <c r="N65" t="s">
+        <v>84</v>
+      </c>
+      <c r="O65" t="s">
+        <v>67</v>
+      </c>
+      <c r="P65" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>61</v>
+      </c>
+      <c r="B66" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66" t="s">
+        <v>86</v>
+      </c>
+      <c r="E66">
+        <v>160</v>
+      </c>
+      <c r="F66">
+        <v>110</v>
+      </c>
+      <c r="G66">
+        <v>65</v>
+      </c>
+      <c r="H66">
+        <v>65</v>
+      </c>
+      <c r="I66">
+        <v>110</v>
+      </c>
+      <c r="J66">
+        <v>30</v>
+      </c>
+      <c r="K66" t="s">
+        <v>87</v>
+      </c>
+      <c r="L66" t="s">
+        <v>88</v>
+      </c>
+      <c r="M66" t="s">
+        <v>61</v>
+      </c>
+      <c r="N66" t="s">
+        <v>89</v>
+      </c>
+      <c r="O66" t="s">
+        <v>90</v>
+      </c>
+      <c r="P66" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>62</v>
+      </c>
+      <c r="B67" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" t="s">
+        <v>50</v>
+      </c>
+      <c r="D67" t="s">
+        <v>43</v>
+      </c>
+      <c r="E67">
+        <v>95</v>
+      </c>
+      <c r="F67">
+        <v>125</v>
+      </c>
+      <c r="G67">
+        <v>79</v>
+      </c>
+      <c r="H67">
+        <v>60</v>
+      </c>
+      <c r="I67">
+        <v>100</v>
+      </c>
+      <c r="J67">
+        <v>81</v>
+      </c>
+      <c r="K67" t="s">
+        <v>91</v>
+      </c>
+      <c r="L67" t="s">
+        <v>92</v>
+      </c>
+      <c r="M67" t="s">
+        <v>61</v>
+      </c>
+      <c r="N67" t="s">
+        <v>72</v>
+      </c>
+      <c r="O67" t="s">
+        <v>93</v>
+      </c>
+      <c r="P67" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>63</v>
+      </c>
+      <c r="B68" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" t="s">
+        <v>57</v>
+      </c>
+      <c r="D68" t="s">
+        <v>82</v>
+      </c>
+      <c r="E68">
+        <v>95</v>
+      </c>
+      <c r="F68">
+        <v>95</v>
+      </c>
+      <c r="G68">
+        <v>85</v>
+      </c>
+      <c r="H68">
+        <v>125</v>
+      </c>
+      <c r="I68">
+        <v>75</v>
+      </c>
+      <c r="J68">
+        <v>55</v>
+      </c>
+      <c r="K68" t="s">
+        <v>95</v>
+      </c>
+      <c r="L68" t="s">
+        <v>82</v>
+      </c>
+      <c r="M68" t="s">
+        <v>96</v>
+      </c>
+      <c r="N68" t="s">
+        <v>97</v>
+      </c>
+      <c r="O68" t="s">
+        <v>62</v>
+      </c>
+      <c r="P68" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>64</v>
+      </c>
+      <c r="B69" t="s">
+        <v>13</v>
+      </c>
+      <c r="C69" t="s">
+        <v>82</v>
+      </c>
+      <c r="E69">
+        <v>106</v>
+      </c>
+      <c r="F69">
+        <v>110</v>
+      </c>
+      <c r="G69">
+        <v>90</v>
+      </c>
+      <c r="H69">
+        <v>154</v>
+      </c>
+      <c r="I69">
+        <v>90</v>
+      </c>
+      <c r="J69">
+        <v>130</v>
+      </c>
+      <c r="K69" t="s">
+        <v>99</v>
+      </c>
+      <c r="L69" t="s">
+        <v>100</v>
+      </c>
+      <c r="M69" t="s">
+        <v>66</v>
+      </c>
+      <c r="N69" t="s">
+        <v>101</v>
+      </c>
+      <c r="O69" t="s">
+        <v>45</v>
+      </c>
+      <c r="P69" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>65</v>
+      </c>
+      <c r="B70" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" t="s">
+        <v>82</v>
+      </c>
+      <c r="E70">
+        <v>55</v>
+      </c>
+      <c r="F70">
+        <v>50</v>
+      </c>
+      <c r="G70">
+        <v>45</v>
+      </c>
+      <c r="H70">
+        <v>135</v>
+      </c>
+      <c r="I70">
+        <v>95</v>
+      </c>
+      <c r="J70">
+        <v>120</v>
+      </c>
+      <c r="K70" t="s">
+        <v>83</v>
+      </c>
+      <c r="L70" t="s">
+        <v>82</v>
+      </c>
+      <c r="M70" t="s">
+        <v>139</v>
+      </c>
+      <c r="N70" t="s">
+        <v>66</v>
+      </c>
+      <c r="O70" t="s">
+        <v>140</v>
+      </c>
+      <c r="P70" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>66</v>
+      </c>
+      <c r="B71" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" t="s">
+        <v>82</v>
+      </c>
+      <c r="E71">
+        <v>55</v>
+      </c>
+      <c r="F71">
+        <v>50</v>
+      </c>
+      <c r="G71">
+        <v>45</v>
+      </c>
+      <c r="H71">
+        <v>135</v>
+      </c>
+      <c r="I71">
+        <v>95</v>
+      </c>
+      <c r="J71">
+        <v>120</v>
+      </c>
+      <c r="K71" t="s">
+        <v>83</v>
+      </c>
+      <c r="L71" t="s">
+        <v>82</v>
+      </c>
+      <c r="M71" t="s">
+        <v>67</v>
+      </c>
+      <c r="N71" t="s">
+        <v>84</v>
+      </c>
+      <c r="O71" t="s">
+        <v>141</v>
+      </c>
+      <c r="P71" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>67</v>
+      </c>
+      <c r="B72" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" t="s">
+        <v>82</v>
+      </c>
+      <c r="E72">
+        <v>55</v>
+      </c>
+      <c r="F72">
+        <v>50</v>
+      </c>
+      <c r="G72">
+        <v>45</v>
+      </c>
+      <c r="H72">
+        <v>135</v>
+      </c>
+      <c r="I72">
+        <v>95</v>
+      </c>
+      <c r="J72">
+        <v>120</v>
+      </c>
+      <c r="K72" t="s">
+        <v>83</v>
+      </c>
+      <c r="L72" t="s">
+        <v>82</v>
+      </c>
+      <c r="M72" t="s">
+        <v>66</v>
+      </c>
+      <c r="N72" t="s">
+        <v>84</v>
+      </c>
+      <c r="O72" t="s">
+        <v>139</v>
+      </c>
+      <c r="P72" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>68</v>
+      </c>
+      <c r="B73" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" t="s">
+        <v>82</v>
+      </c>
+      <c r="E73">
+        <v>55</v>
+      </c>
+      <c r="F73">
+        <v>50</v>
+      </c>
+      <c r="G73">
+        <v>45</v>
+      </c>
+      <c r="H73">
+        <v>135</v>
+      </c>
+      <c r="I73">
+        <v>95</v>
+      </c>
+      <c r="J73">
+        <v>120</v>
+      </c>
+      <c r="K73" t="s">
+        <v>83</v>
+      </c>
+      <c r="L73" t="s">
+        <v>82</v>
+      </c>
+      <c r="M73" t="s">
+        <v>67</v>
+      </c>
+      <c r="N73" t="s">
+        <v>66</v>
+      </c>
+      <c r="O73" t="s">
+        <v>142</v>
+      </c>
+      <c r="P73" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>69</v>
+      </c>
+      <c r="B75" t="s">
+        <v>15</v>
+      </c>
+      <c r="C75" t="s">
+        <v>42</v>
+      </c>
+      <c r="D75" t="s">
+        <v>103</v>
+      </c>
+      <c r="E75">
+        <v>80</v>
+      </c>
+      <c r="F75">
+        <v>120</v>
+      </c>
+      <c r="G75">
+        <v>70</v>
+      </c>
+      <c r="H75">
+        <v>110</v>
+      </c>
+      <c r="I75">
+        <v>70</v>
+      </c>
+      <c r="J75">
+        <v>80</v>
+      </c>
+      <c r="K75" t="s">
+        <v>104</v>
+      </c>
+      <c r="L75" t="s">
+        <v>105</v>
+      </c>
+      <c r="M75" t="s">
+        <v>106</v>
+      </c>
+      <c r="N75" t="s">
+        <v>107</v>
+      </c>
+      <c r="O75" t="s">
+        <v>61</v>
+      </c>
+      <c r="P75" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>70</v>
+      </c>
+      <c r="B76" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76" t="s">
+        <v>109</v>
+      </c>
+      <c r="D76" t="s">
+        <v>110</v>
+      </c>
+      <c r="E76">
+        <v>100</v>
+      </c>
+      <c r="F76">
+        <v>134</v>
+      </c>
+      <c r="G76">
+        <v>110</v>
+      </c>
+      <c r="H76">
+        <v>95</v>
+      </c>
+      <c r="I76">
+        <v>100</v>
+      </c>
+      <c r="J76">
+        <v>61</v>
+      </c>
+      <c r="K76" t="s">
+        <v>111</v>
+      </c>
+      <c r="L76" t="s">
+        <v>112</v>
+      </c>
+      <c r="M76" t="s">
+        <v>90</v>
+      </c>
+      <c r="N76" t="s">
+        <v>72</v>
+      </c>
+      <c r="O76" t="s">
+        <v>61</v>
+      </c>
+      <c r="P76" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>71</v>
+      </c>
+      <c r="B77" t="s">
+        <v>17</v>
+      </c>
+      <c r="C77" t="s">
+        <v>114</v>
+      </c>
+      <c r="D77" t="s">
+        <v>82</v>
+      </c>
+      <c r="E77">
+        <v>80</v>
+      </c>
+      <c r="F77">
+        <v>135</v>
+      </c>
+      <c r="G77">
+        <v>130</v>
+      </c>
+      <c r="H77">
+        <v>95</v>
+      </c>
+      <c r="I77">
+        <v>90</v>
+      </c>
+      <c r="J77">
+        <v>70</v>
+      </c>
+      <c r="K77" t="s">
+        <v>115</v>
+      </c>
+      <c r="L77" t="s">
+        <v>116</v>
+      </c>
+      <c r="M77" t="s">
+        <v>61</v>
+      </c>
+      <c r="N77" t="s">
+        <v>117</v>
+      </c>
+      <c r="O77" t="s">
+        <v>118</v>
+      </c>
+      <c r="P77" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>72</v>
+      </c>
+      <c r="B78" t="s">
+        <v>18</v>
+      </c>
+      <c r="C78" t="s">
+        <v>69</v>
+      </c>
+      <c r="D78" t="s">
+        <v>43</v>
+      </c>
+      <c r="E78">
+        <v>95</v>
+      </c>
+      <c r="F78">
+        <v>135</v>
+      </c>
+      <c r="G78">
+        <v>80</v>
+      </c>
+      <c r="H78">
+        <v>110</v>
+      </c>
+      <c r="I78">
+        <v>80</v>
+      </c>
+      <c r="J78">
+        <v>100</v>
+      </c>
+      <c r="K78" t="s">
+        <v>91</v>
+      </c>
+      <c r="L78" t="s">
+        <v>47</v>
+      </c>
+      <c r="M78" t="s">
+        <v>120</v>
+      </c>
+      <c r="N78" t="s">
+        <v>72</v>
+      </c>
+      <c r="O78" t="s">
+        <v>90</v>
+      </c>
+      <c r="P78" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>73</v>
+      </c>
+      <c r="B79" t="s">
+        <v>19</v>
+      </c>
+      <c r="C79" t="s">
+        <v>69</v>
+      </c>
+      <c r="D79" t="s">
+        <v>122</v>
+      </c>
+      <c r="E79">
+        <v>108</v>
+      </c>
+      <c r="F79">
+        <v>130</v>
+      </c>
+      <c r="G79">
+        <v>95</v>
+      </c>
+      <c r="H79">
+        <v>80</v>
+      </c>
+      <c r="I79">
+        <v>85</v>
+      </c>
+      <c r="J79">
+        <v>102</v>
+      </c>
+      <c r="K79" t="s">
+        <v>123</v>
+      </c>
+      <c r="L79" t="s">
+        <v>61</v>
+      </c>
+      <c r="M79" t="s">
+        <v>47</v>
+      </c>
+      <c r="N79" t="s">
+        <v>124</v>
+      </c>
+      <c r="O79" t="s">
+        <v>125</v>
+      </c>
+      <c r="P79" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>74</v>
+      </c>
+      <c r="B80" t="s">
+        <v>20</v>
+      </c>
+      <c r="C80" t="s">
+        <v>127</v>
+      </c>
+      <c r="D80" t="s">
+        <v>42</v>
+      </c>
+      <c r="E80">
+        <v>85</v>
+      </c>
+      <c r="F80">
+        <v>60</v>
+      </c>
+      <c r="G80">
+        <v>65</v>
+      </c>
+      <c r="H80">
+        <v>135</v>
+      </c>
+      <c r="I80">
+        <v>105</v>
+      </c>
+      <c r="J80">
+        <v>100</v>
+      </c>
+      <c r="K80" t="s">
+        <v>128</v>
+      </c>
+      <c r="L80" t="s">
+        <v>129</v>
+      </c>
+      <c r="M80" t="s">
+        <v>130</v>
+      </c>
+      <c r="N80" t="s">
+        <v>131</v>
+      </c>
+      <c r="O80" t="s">
+        <v>132</v>
+      </c>
+      <c r="P80" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>75</v>
+      </c>
+      <c r="B81" t="s">
+        <v>16</v>
+      </c>
+      <c r="C81" t="s">
+        <v>109</v>
+      </c>
+      <c r="D81" t="s">
+        <v>110</v>
+      </c>
+      <c r="E81">
+        <v>100</v>
+      </c>
+      <c r="F81">
+        <v>134</v>
+      </c>
+      <c r="G81">
+        <v>110</v>
+      </c>
+      <c r="H81">
+        <v>95</v>
+      </c>
+      <c r="I81">
+        <v>100</v>
+      </c>
+      <c r="J81">
+        <v>61</v>
+      </c>
+      <c r="K81" t="s">
+        <v>111</v>
+      </c>
+      <c r="L81" t="s">
+        <v>112</v>
+      </c>
+      <c r="M81" t="s">
+        <v>90</v>
+      </c>
+      <c r="N81" t="s">
+        <v>72</v>
+      </c>
+      <c r="O81" t="s">
+        <v>61</v>
+      </c>
+      <c r="P81" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>76</v>
+      </c>
+      <c r="B82" t="s">
+        <v>16</v>
+      </c>
+      <c r="C82" t="s">
+        <v>109</v>
+      </c>
+      <c r="D82" t="s">
+        <v>110</v>
+      </c>
+      <c r="E82">
+        <v>100</v>
+      </c>
+      <c r="F82">
+        <v>134</v>
+      </c>
+      <c r="G82">
+        <v>110</v>
+      </c>
+      <c r="H82">
+        <v>95</v>
+      </c>
+      <c r="I82">
+        <v>100</v>
+      </c>
+      <c r="J82">
+        <v>61</v>
+      </c>
+      <c r="K82" t="s">
+        <v>111</v>
+      </c>
+      <c r="L82" t="s">
+        <v>112</v>
+      </c>
+      <c r="M82" t="s">
+        <v>90</v>
+      </c>
+      <c r="N82" t="s">
+        <v>72</v>
+      </c>
+      <c r="O82" t="s">
+        <v>61</v>
+      </c>
+      <c r="P82" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>77</v>
+      </c>
+      <c r="B83" t="s">
+        <v>16</v>
+      </c>
+      <c r="C83" t="s">
+        <v>109</v>
+      </c>
+      <c r="D83" t="s">
+        <v>110</v>
+      </c>
+      <c r="E83">
+        <v>100</v>
+      </c>
+      <c r="F83">
+        <v>134</v>
+      </c>
+      <c r="G83">
+        <v>110</v>
+      </c>
+      <c r="H83">
+        <v>95</v>
+      </c>
+      <c r="I83">
+        <v>100</v>
+      </c>
+      <c r="J83">
+        <v>61</v>
+      </c>
+      <c r="K83" t="s">
+        <v>111</v>
+      </c>
+      <c r="L83" t="s">
+        <v>112</v>
+      </c>
+      <c r="M83" t="s">
+        <v>90</v>
+      </c>
+      <c r="N83" t="s">
+        <v>72</v>
+      </c>
+      <c r="O83" t="s">
+        <v>61</v>
+      </c>
+      <c r="P83" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>78</v>
+      </c>
+      <c r="B84" t="s">
+        <v>16</v>
+      </c>
+      <c r="C84" t="s">
+        <v>109</v>
+      </c>
+      <c r="D84" t="s">
+        <v>110</v>
+      </c>
+      <c r="E84">
+        <v>100</v>
+      </c>
+      <c r="F84">
+        <v>134</v>
+      </c>
+      <c r="G84">
+        <v>110</v>
+      </c>
+      <c r="H84">
+        <v>95</v>
+      </c>
+      <c r="I84">
+        <v>100</v>
+      </c>
+      <c r="J84">
+        <v>61</v>
+      </c>
+      <c r="K84" t="s">
+        <v>111</v>
+      </c>
+      <c r="L84" t="s">
+        <v>112</v>
+      </c>
+      <c r="M84" t="s">
+        <v>90</v>
+      </c>
+      <c r="N84" t="s">
+        <v>72</v>
+      </c>
+      <c r="O84" t="s">
+        <v>61</v>
+      </c>
+      <c r="P84" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>79</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>35</v>
+      </c>
+      <c r="E86">
+        <v>35</v>
+      </c>
+      <c r="F86">
+        <v>55</v>
+      </c>
+      <c r="G86">
+        <v>40</v>
+      </c>
+      <c r="H86">
+        <v>50</v>
+      </c>
+      <c r="I86">
+        <v>50</v>
+      </c>
+      <c r="J86">
+        <v>90</v>
+      </c>
+      <c r="K86" t="s">
+        <v>36</v>
+      </c>
+      <c r="L86" t="s">
+        <v>37</v>
+      </c>
+      <c r="M86" t="s">
+        <v>38</v>
+      </c>
+      <c r="N86" t="s">
+        <v>39</v>
+      </c>
+      <c r="O86" t="s">
+        <v>40</v>
+      </c>
+      <c r="P86" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>80</v>
+      </c>
+      <c r="B87" t="s">
+        <v>2</v>
+      </c>
+      <c r="C87" t="s">
+        <v>42</v>
+      </c>
+      <c r="D87" t="s">
+        <v>43</v>
+      </c>
+      <c r="E87">
+        <v>78</v>
+      </c>
+      <c r="F87">
+        <v>84</v>
+      </c>
+      <c r="G87">
+        <v>78</v>
+      </c>
+      <c r="H87">
+        <v>109</v>
+      </c>
+      <c r="I87">
+        <v>85</v>
+      </c>
+      <c r="J87">
+        <v>100</v>
+      </c>
+      <c r="K87" t="s">
+        <v>44</v>
+      </c>
+      <c r="L87" t="s">
+        <v>45</v>
+      </c>
+      <c r="M87" t="s">
+        <v>46</v>
+      </c>
+      <c r="N87" t="s">
+        <v>47</v>
+      </c>
+      <c r="O87" t="s">
+        <v>48</v>
+      </c>
+      <c r="P87" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>81</v>
+      </c>
+      <c r="B88" t="s">
+        <v>3</v>
+      </c>
+      <c r="C88" t="s">
+        <v>50</v>
+      </c>
+      <c r="E88">
+        <v>79</v>
+      </c>
+      <c r="F88">
+        <v>83</v>
+      </c>
+      <c r="G88">
+        <v>100</v>
+      </c>
+      <c r="H88">
+        <v>85</v>
+      </c>
+      <c r="I88">
+        <v>105</v>
+      </c>
+      <c r="J88">
+        <v>78</v>
+      </c>
+      <c r="K88" t="s">
+        <v>51</v>
+      </c>
+      <c r="L88" t="s">
+        <v>52</v>
+      </c>
+      <c r="M88" t="s">
+        <v>53</v>
+      </c>
+      <c r="N88" t="s">
+        <v>54</v>
+      </c>
+      <c r="O88" t="s">
+        <v>55</v>
+      </c>
+      <c r="P88" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>82</v>
+      </c>
+      <c r="B89" t="s">
+        <v>4</v>
+      </c>
+      <c r="C89" t="s">
+        <v>57</v>
+      </c>
+      <c r="D89" t="s">
+        <v>58</v>
+      </c>
+      <c r="E89">
+        <v>80</v>
+      </c>
+      <c r="F89">
+        <v>82</v>
+      </c>
+      <c r="G89">
+        <v>83</v>
+      </c>
+      <c r="H89">
+        <v>100</v>
+      </c>
+      <c r="I89">
+        <v>100</v>
+      </c>
+      <c r="J89">
+        <v>80</v>
+      </c>
+      <c r="K89" t="s">
+        <v>59</v>
+      </c>
+      <c r="L89" t="s">
+        <v>48</v>
+      </c>
+      <c r="M89" t="s">
+        <v>60</v>
+      </c>
+      <c r="N89" t="s">
+        <v>61</v>
+      </c>
+      <c r="O89" t="s">
+        <v>62</v>
+      </c>
+      <c r="P89" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>83</v>
+      </c>
+      <c r="B90" t="s">
+        <v>5</v>
+      </c>
+      <c r="C90" t="s">
+        <v>64</v>
+      </c>
+      <c r="D90" t="s">
+        <v>58</v>
+      </c>
+      <c r="E90">
+        <v>60</v>
+      </c>
+      <c r="F90">
+        <v>65</v>
+      </c>
+      <c r="G90">
+        <v>60</v>
+      </c>
+      <c r="H90">
+        <v>130</v>
+      </c>
+      <c r="I90">
+        <v>75</v>
+      </c>
+      <c r="J90">
+        <v>110</v>
+      </c>
+      <c r="K90" t="s">
+        <v>65</v>
+      </c>
+      <c r="L90" t="s">
+        <v>66</v>
+      </c>
+      <c r="M90" t="s">
+        <v>60</v>
+      </c>
+      <c r="N90" t="s">
+        <v>67</v>
+      </c>
+      <c r="O90" t="s">
+        <v>37</v>
+      </c>
+      <c r="P90" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>84</v>
+      </c>
+      <c r="B91" t="s">
+        <v>6</v>
+      </c>
+      <c r="C91" t="s">
+        <v>69</v>
+      </c>
+      <c r="D91" t="s">
+        <v>43</v>
+      </c>
+      <c r="E91">
+        <v>91</v>
+      </c>
+      <c r="F91">
+        <v>134</v>
+      </c>
+      <c r="G91">
+        <v>95</v>
+      </c>
+      <c r="H91">
+        <v>100</v>
+      </c>
+      <c r="I91">
+        <v>100</v>
+      </c>
+      <c r="J91">
+        <v>80</v>
+      </c>
+      <c r="K91" t="s">
+        <v>70</v>
+      </c>
+      <c r="L91" t="s">
+        <v>71</v>
+      </c>
+      <c r="M91" t="s">
+        <v>72</v>
+      </c>
+      <c r="N91" t="s">
+        <v>61</v>
+      </c>
+      <c r="O91" t="s">
+        <v>73</v>
+      </c>
+      <c r="P91" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>85</v>
+      </c>
+      <c r="B92" t="s">
+        <v>2</v>
+      </c>
+      <c r="C92" t="s">
+        <v>42</v>
+      </c>
+      <c r="D92" t="s">
+        <v>43</v>
+      </c>
+      <c r="E92">
+        <v>78</v>
+      </c>
+      <c r="F92">
+        <v>84</v>
+      </c>
+      <c r="G92">
+        <v>78</v>
+      </c>
+      <c r="H92">
+        <v>109</v>
+      </c>
+      <c r="I92">
+        <v>85</v>
+      </c>
+      <c r="J92">
+        <v>100</v>
+      </c>
+      <c r="K92" t="s">
+        <v>44</v>
+      </c>
+      <c r="L92" t="s">
+        <v>45</v>
+      </c>
+      <c r="M92" t="s">
+        <v>133</v>
+      </c>
+      <c r="N92" t="s">
+        <v>134</v>
+      </c>
+      <c r="O92" t="s">
+        <v>135</v>
+      </c>
+      <c r="P92" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>86</v>
+      </c>
+      <c r="B93" t="s">
+        <v>2</v>
+      </c>
+      <c r="C93" t="s">
+        <v>42</v>
+      </c>
+      <c r="D93" t="s">
+        <v>43</v>
+      </c>
+      <c r="E93">
+        <v>78</v>
+      </c>
+      <c r="F93">
+        <v>84</v>
+      </c>
+      <c r="G93">
+        <v>78</v>
+      </c>
+      <c r="H93">
+        <v>109</v>
+      </c>
+      <c r="I93">
+        <v>85</v>
+      </c>
+      <c r="J93">
+        <v>100</v>
+      </c>
+      <c r="K93" t="s">
+        <v>44</v>
+      </c>
+      <c r="L93" t="s">
+        <v>137</v>
+      </c>
+      <c r="M93" t="s">
+        <v>46</v>
+      </c>
+      <c r="N93" t="s">
+        <v>47</v>
+      </c>
+      <c r="O93" t="s">
+        <v>67</v>
+      </c>
+      <c r="P93" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>87</v>
+      </c>
+      <c r="B94" t="s">
+        <v>2</v>
+      </c>
+      <c r="C94" t="s">
+        <v>42</v>
+      </c>
+      <c r="D94" t="s">
+        <v>43</v>
+      </c>
+      <c r="E94">
+        <v>78</v>
+      </c>
+      <c r="F94">
+        <v>84</v>
+      </c>
+      <c r="G94">
+        <v>78</v>
+      </c>
+      <c r="H94">
+        <v>109</v>
+      </c>
+      <c r="I94">
+        <v>85</v>
+      </c>
+      <c r="J94">
+        <v>100</v>
+      </c>
+      <c r="K94" t="s">
+        <v>44</v>
+      </c>
+      <c r="L94" t="s">
+        <v>105</v>
+      </c>
+      <c r="M94" t="s">
+        <v>72</v>
+      </c>
+      <c r="N94" t="s">
+        <v>135</v>
+      </c>
+      <c r="O94" t="s">
+        <v>138</v>
+      </c>
+      <c r="P94" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>88</v>
+      </c>
+      <c r="B95" t="s">
+        <v>2</v>
+      </c>
+      <c r="C95" t="s">
+        <v>42</v>
+      </c>
+      <c r="D95" t="s">
+        <v>43</v>
+      </c>
+      <c r="E95">
+        <v>78</v>
+      </c>
+      <c r="F95">
+        <v>84</v>
+      </c>
+      <c r="G95">
+        <v>78</v>
+      </c>
+      <c r="H95">
+        <v>109</v>
+      </c>
+      <c r="I95">
+        <v>85</v>
+      </c>
+      <c r="J95">
+        <v>100</v>
+      </c>
+      <c r="K95" t="s">
+        <v>44</v>
+      </c>
+      <c r="L95" t="s">
+        <v>133</v>
+      </c>
+      <c r="M95" t="s">
+        <v>46</v>
+      </c>
+      <c r="N95" t="s">
+        <v>134</v>
+      </c>
+      <c r="O95" t="s">
+        <v>67</v>
+      </c>
+      <c r="P95" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>89</v>
+      </c>
+      <c r="B97" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" t="s">
+        <v>35</v>
+      </c>
+      <c r="E97">
+        <v>65</v>
+      </c>
+      <c r="F97">
+        <v>65</v>
+      </c>
+      <c r="G97">
+        <v>60</v>
+      </c>
+      <c r="H97">
+        <v>110</v>
+      </c>
+      <c r="I97">
+        <v>95</v>
+      </c>
+      <c r="J97">
+        <v>130</v>
+      </c>
+      <c r="K97" t="s">
+        <v>78</v>
+      </c>
+      <c r="L97" t="s">
+        <v>37</v>
+      </c>
+      <c r="M97" t="s">
+        <v>66</v>
+      </c>
+      <c r="N97" t="s">
+        <v>79</v>
+      </c>
+      <c r="O97" t="s">
+        <v>80</v>
+      </c>
+      <c r="P97" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>90</v>
+      </c>
+      <c r="B98" t="s">
+        <v>9</v>
+      </c>
+      <c r="C98" t="s">
+        <v>82</v>
+      </c>
+      <c r="E98">
+        <v>55</v>
+      </c>
+      <c r="F98">
+        <v>50</v>
+      </c>
+      <c r="G98">
+        <v>45</v>
+      </c>
+      <c r="H98">
+        <v>135</v>
+      </c>
+      <c r="I98">
+        <v>95</v>
+      </c>
+      <c r="J98">
+        <v>120</v>
+      </c>
+      <c r="K98" t="s">
+        <v>83</v>
+      </c>
+      <c r="L98" t="s">
+        <v>82</v>
+      </c>
+      <c r="M98" t="s">
+        <v>66</v>
+      </c>
+      <c r="N98" t="s">
+        <v>84</v>
+      </c>
+      <c r="O98" t="s">
+        <v>67</v>
+      </c>
+      <c r="P98" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>91</v>
+      </c>
+      <c r="B99" t="s">
+        <v>10</v>
+      </c>
+      <c r="C99" t="s">
+        <v>86</v>
+      </c>
+      <c r="E99">
+        <v>160</v>
+      </c>
+      <c r="F99">
+        <v>110</v>
+      </c>
+      <c r="G99">
+        <v>65</v>
+      </c>
+      <c r="H99">
+        <v>65</v>
+      </c>
+      <c r="I99">
+        <v>110</v>
+      </c>
+      <c r="J99">
+        <v>30</v>
+      </c>
+      <c r="K99" t="s">
+        <v>87</v>
+      </c>
+      <c r="L99" t="s">
+        <v>88</v>
+      </c>
+      <c r="M99" t="s">
+        <v>61</v>
+      </c>
+      <c r="N99" t="s">
+        <v>89</v>
+      </c>
+      <c r="O99" t="s">
+        <v>90</v>
+      </c>
+      <c r="P99" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>92</v>
+      </c>
+      <c r="B100" t="s">
+        <v>11</v>
+      </c>
+      <c r="C100" t="s">
+        <v>50</v>
+      </c>
+      <c r="D100" t="s">
+        <v>43</v>
+      </c>
+      <c r="E100">
+        <v>95</v>
+      </c>
+      <c r="F100">
+        <v>125</v>
+      </c>
+      <c r="G100">
+        <v>79</v>
+      </c>
+      <c r="H100">
+        <v>60</v>
+      </c>
+      <c r="I100">
+        <v>100</v>
+      </c>
+      <c r="J100">
+        <v>81</v>
+      </c>
+      <c r="K100" t="s">
+        <v>91</v>
+      </c>
+      <c r="L100" t="s">
+        <v>92</v>
+      </c>
+      <c r="M100" t="s">
+        <v>61</v>
+      </c>
+      <c r="N100" t="s">
+        <v>72</v>
+      </c>
+      <c r="O100" t="s">
+        <v>93</v>
+      </c>
+      <c r="P100" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>93</v>
+      </c>
+      <c r="B101" t="s">
+        <v>12</v>
+      </c>
+      <c r="C101" t="s">
+        <v>57</v>
+      </c>
+      <c r="D101" t="s">
+        <v>82</v>
+      </c>
+      <c r="E101">
+        <v>95</v>
+      </c>
+      <c r="F101">
+        <v>95</v>
+      </c>
+      <c r="G101">
+        <v>85</v>
+      </c>
+      <c r="H101">
+        <v>125</v>
+      </c>
+      <c r="I101">
+        <v>75</v>
+      </c>
+      <c r="J101">
+        <v>55</v>
+      </c>
+      <c r="K101" t="s">
+        <v>95</v>
+      </c>
+      <c r="L101" t="s">
+        <v>82</v>
+      </c>
+      <c r="M101" t="s">
+        <v>96</v>
+      </c>
+      <c r="N101" t="s">
+        <v>97</v>
+      </c>
+      <c r="O101" t="s">
+        <v>62</v>
+      </c>
+      <c r="P101" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>94</v>
+      </c>
+      <c r="B102" t="s">
+        <v>13</v>
+      </c>
+      <c r="C102" t="s">
+        <v>82</v>
+      </c>
+      <c r="E102">
+        <v>106</v>
+      </c>
+      <c r="F102">
+        <v>110</v>
+      </c>
+      <c r="G102">
+        <v>90</v>
+      </c>
+      <c r="H102">
+        <v>154</v>
+      </c>
+      <c r="I102">
+        <v>90</v>
+      </c>
+      <c r="J102">
+        <v>130</v>
+      </c>
+      <c r="K102" t="s">
+        <v>99</v>
+      </c>
+      <c r="L102" t="s">
+        <v>100</v>
+      </c>
+      <c r="M102" t="s">
+        <v>66</v>
+      </c>
+      <c r="N102" t="s">
+        <v>101</v>
+      </c>
+      <c r="O102" t="s">
+        <v>45</v>
+      </c>
+      <c r="P102" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>95</v>
+      </c>
+      <c r="B103" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103" t="s">
+        <v>82</v>
+      </c>
+      <c r="E103">
+        <v>55</v>
+      </c>
+      <c r="F103">
+        <v>50</v>
+      </c>
+      <c r="G103">
+        <v>45</v>
+      </c>
+      <c r="H103">
+        <v>135</v>
+      </c>
+      <c r="I103">
+        <v>95</v>
+      </c>
+      <c r="J103">
+        <v>120</v>
+      </c>
+      <c r="K103" t="s">
+        <v>83</v>
+      </c>
+      <c r="L103" t="s">
+        <v>82</v>
+      </c>
+      <c r="M103" t="s">
+        <v>139</v>
+      </c>
+      <c r="N103" t="s">
+        <v>66</v>
+      </c>
+      <c r="O103" t="s">
+        <v>140</v>
+      </c>
+      <c r="P103" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>96</v>
+      </c>
+      <c r="B104" t="s">
+        <v>9</v>
+      </c>
+      <c r="C104" t="s">
+        <v>82</v>
+      </c>
+      <c r="E104">
+        <v>55</v>
+      </c>
+      <c r="F104">
+        <v>50</v>
+      </c>
+      <c r="G104">
+        <v>45</v>
+      </c>
+      <c r="H104">
+        <v>135</v>
+      </c>
+      <c r="I104">
+        <v>95</v>
+      </c>
+      <c r="J104">
+        <v>120</v>
+      </c>
+      <c r="K104" t="s">
+        <v>83</v>
+      </c>
+      <c r="L104" t="s">
+        <v>82</v>
+      </c>
+      <c r="M104" t="s">
+        <v>67</v>
+      </c>
+      <c r="N104" t="s">
+        <v>84</v>
+      </c>
+      <c r="O104" t="s">
+        <v>141</v>
+      </c>
+      <c r="P104" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>97</v>
+      </c>
+      <c r="B105" t="s">
+        <v>9</v>
+      </c>
+      <c r="C105" t="s">
+        <v>82</v>
+      </c>
+      <c r="E105">
+        <v>55</v>
+      </c>
+      <c r="F105">
+        <v>50</v>
+      </c>
+      <c r="G105">
+        <v>45</v>
+      </c>
+      <c r="H105">
+        <v>135</v>
+      </c>
+      <c r="I105">
+        <v>95</v>
+      </c>
+      <c r="J105">
+        <v>120</v>
+      </c>
+      <c r="K105" t="s">
+        <v>83</v>
+      </c>
+      <c r="L105" t="s">
+        <v>82</v>
+      </c>
+      <c r="M105" t="s">
+        <v>66</v>
+      </c>
+      <c r="N105" t="s">
+        <v>84</v>
+      </c>
+      <c r="O105" t="s">
+        <v>139</v>
+      </c>
+      <c r="P105" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>98</v>
+      </c>
+      <c r="B106" t="s">
+        <v>9</v>
+      </c>
+      <c r="C106" t="s">
+        <v>82</v>
+      </c>
+      <c r="E106">
+        <v>55</v>
+      </c>
+      <c r="F106">
+        <v>50</v>
+      </c>
+      <c r="G106">
+        <v>45</v>
+      </c>
+      <c r="H106">
+        <v>135</v>
+      </c>
+      <c r="I106">
+        <v>95</v>
+      </c>
+      <c r="J106">
+        <v>120</v>
+      </c>
+      <c r="K106" t="s">
+        <v>83</v>
+      </c>
+      <c r="L106" t="s">
+        <v>82</v>
+      </c>
+      <c r="M106" t="s">
+        <v>67</v>
+      </c>
+      <c r="N106" t="s">
+        <v>66</v>
+      </c>
+      <c r="O106" t="s">
+        <v>142</v>
+      </c>
+      <c r="P106" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>99</v>
+      </c>
+      <c r="B108" t="s">
+        <v>15</v>
+      </c>
+      <c r="C108" t="s">
+        <v>42</v>
+      </c>
+      <c r="D108" t="s">
+        <v>103</v>
+      </c>
+      <c r="E108">
+        <v>80</v>
+      </c>
+      <c r="F108">
+        <v>120</v>
+      </c>
+      <c r="G108">
+        <v>70</v>
+      </c>
+      <c r="H108">
+        <v>110</v>
+      </c>
+      <c r="I108">
+        <v>70</v>
+      </c>
+      <c r="J108">
+        <v>80</v>
+      </c>
+      <c r="K108" t="s">
+        <v>104</v>
+      </c>
+      <c r="L108" t="s">
+        <v>105</v>
+      </c>
+      <c r="M108" t="s">
+        <v>106</v>
+      </c>
+      <c r="N108" t="s">
+        <v>107</v>
+      </c>
+      <c r="O108" t="s">
+        <v>61</v>
+      </c>
+      <c r="P108" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>100</v>
+      </c>
+      <c r="B109" t="s">
+        <v>16</v>
+      </c>
+      <c r="C109" t="s">
+        <v>109</v>
+      </c>
+      <c r="D109" t="s">
+        <v>110</v>
+      </c>
+      <c r="E109">
+        <v>100</v>
+      </c>
+      <c r="F109">
+        <v>134</v>
+      </c>
+      <c r="G109">
+        <v>110</v>
+      </c>
+      <c r="H109">
+        <v>95</v>
+      </c>
+      <c r="I109">
+        <v>100</v>
+      </c>
+      <c r="J109">
+        <v>61</v>
+      </c>
+      <c r="K109" t="s">
+        <v>111</v>
+      </c>
+      <c r="L109" t="s">
+        <v>112</v>
+      </c>
+      <c r="M109" t="s">
+        <v>90</v>
+      </c>
+      <c r="N109" t="s">
+        <v>72</v>
+      </c>
+      <c r="O109" t="s">
+        <v>61</v>
+      </c>
+      <c r="P109" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>101</v>
+      </c>
+      <c r="B110" t="s">
+        <v>17</v>
+      </c>
+      <c r="C110" t="s">
+        <v>114</v>
+      </c>
+      <c r="D110" t="s">
+        <v>82</v>
+      </c>
+      <c r="E110">
+        <v>80</v>
+      </c>
+      <c r="F110">
+        <v>135</v>
+      </c>
+      <c r="G110">
+        <v>130</v>
+      </c>
+      <c r="H110">
+        <v>95</v>
+      </c>
+      <c r="I110">
+        <v>90</v>
+      </c>
+      <c r="J110">
+        <v>70</v>
+      </c>
+      <c r="K110" t="s">
+        <v>115</v>
+      </c>
+      <c r="L110" t="s">
+        <v>116</v>
+      </c>
+      <c r="M110" t="s">
+        <v>61</v>
+      </c>
+      <c r="N110" t="s">
+        <v>117</v>
+      </c>
+      <c r="O110" t="s">
+        <v>118</v>
+      </c>
+      <c r="P110" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>102</v>
+      </c>
+      <c r="B111" t="s">
+        <v>18</v>
+      </c>
+      <c r="C111" t="s">
+        <v>69</v>
+      </c>
+      <c r="D111" t="s">
+        <v>43</v>
+      </c>
+      <c r="E111">
+        <v>95</v>
+      </c>
+      <c r="F111">
+        <v>135</v>
+      </c>
+      <c r="G111">
+        <v>80</v>
+      </c>
+      <c r="H111">
+        <v>110</v>
+      </c>
+      <c r="I111">
+        <v>80</v>
+      </c>
+      <c r="J111">
+        <v>100</v>
+      </c>
+      <c r="K111" t="s">
+        <v>91</v>
+      </c>
+      <c r="L111" t="s">
+        <v>47</v>
+      </c>
+      <c r="M111" t="s">
+        <v>120</v>
+      </c>
+      <c r="N111" t="s">
+        <v>72</v>
+      </c>
+      <c r="O111" t="s">
+        <v>90</v>
+      </c>
+      <c r="P111" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>103</v>
+      </c>
+      <c r="B112" t="s">
+        <v>19</v>
+      </c>
+      <c r="C112" t="s">
+        <v>69</v>
+      </c>
+      <c r="D112" t="s">
+        <v>122</v>
+      </c>
+      <c r="E112">
+        <v>108</v>
+      </c>
+      <c r="F112">
+        <v>130</v>
+      </c>
+      <c r="G112">
+        <v>95</v>
+      </c>
+      <c r="H112">
+        <v>80</v>
+      </c>
+      <c r="I112">
+        <v>85</v>
+      </c>
+      <c r="J112">
+        <v>102</v>
+      </c>
+      <c r="K112" t="s">
+        <v>123</v>
+      </c>
+      <c r="L112" t="s">
+        <v>61</v>
+      </c>
+      <c r="M112" t="s">
+        <v>47</v>
+      </c>
+      <c r="N112" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
